--- a/dtpu_configurations/only_integer32/50mhz/mxu_8x8/power.xlsx
+++ b/dtpu_configurations/only_integer32/50mhz/mxu_8x8/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.02199319563806057</v>
+        <v>0.037568289786577225</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.008764196187257767</v>
+        <v>0.011646807193756104</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.006957201287150383</v>
+        <v>0.008313099853694439</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.004816879518330097</v>
+        <v>0.0048173218965530396</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.95098088827217E-5</v>
+        <v>0.0023884049151092768</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0012338256929069757</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12739764153957367</v>
+        <v>0.1275787353515625</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4309923648834229</v>
+        <v>1.4533463716506958</v>
       </c>
     </row>
   </sheetData>
